--- a/biology/Zoologie/Gracillariidae/Gracillariidae.xlsx
+++ b/biology/Zoologie/Gracillariidae/Gracillariidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Gracillariidae forment une famille d'insectes de l'ordre des lépidoptères (papillons) et la principale famille de Mineuses.
 </t>
@@ -511,9 +523,11 @@
           <t>Taxinomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>La famille des Gracillariidae compte environ 2 000 espèces. En 2016, une révision de la phylogénie des Gracillariidae les regroupe désormais en huit sous-familles[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>La famille des Gracillariidae compte environ 2 000 espèces. En 2016, une révision de la phylogénie des Gracillariidae les regroupe désormais en huit sous-familles :
 Acrocercopinae Kawahara &amp; Ohshima, 2016
 Gracillariinae Stainton, 1854
 Lithocolletinae Stainton, 1854
@@ -549,7 +563,9 @@
           <t>Espèces d'importance économique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Phyllocnistis citrella Stainton, 1856 - mineuse des agrumes
 Conopomorpha cramerella (Snellen, 1904) - teigne javanaise du cacaoyer ou foreur de cabosses
